--- a/01.니케 건축 시스템 역기획서/역기획서/니케 건축 시스템 DB.xlsx
+++ b/01.니케 건축 시스템 역기획서/역기획서/니케 건축 시스템 DB.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효진\OneDrive\바탕 화면\Employment\01.니케 건축 시스템 역기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효진\OneDrive\바탕 화면\Employment\01.니케 건축 시스템 역기획서\역기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF4170B-3A6D-4B9F-8107-E262FB8E04A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933AEC2F-F299-4B25-ABB1-F461DBCBFFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21120" yWindow="2130" windowWidth="19200" windowHeight="18210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="15" r:id="rId1"/>
     <sheet name="building" sheetId="2" r:id="rId2"/>
     <sheet name="buildingType" sheetId="14" r:id="rId3"/>
     <sheet name="item" sheetId="3" r:id="rId4"/>
-    <sheet name="item_type" sheetId="16" r:id="rId5"/>
+    <sheet name="itemType" sheetId="16" r:id="rId5"/>
     <sheet name="text" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -4486,7 +4486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4538,15 +4538,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4571,15 +4562,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -4589,22 +4571,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4887,7 +4854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4898,29 +4865,29 @@
     <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -4931,7 +4898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -4942,7 +4909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -4953,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -4963,9 +4930,8 @@
       <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -4975,9 +4941,8 @@
       <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -4987,9 +4952,8 @@
       <c r="C8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -4999,9 +4963,8 @@
       <c r="C9" s="4">
         <v>3</v>
       </c>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -5011,9 +4974,8 @@
       <c r="C10" s="4">
         <v>3</v>
       </c>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -5023,9 +4985,8 @@
       <c r="C11" s="4">
         <v>3</v>
       </c>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -5035,9 +4996,8 @@
       <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -5048,7 +5008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -5059,7 +5019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -5070,7 +5030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -5245,117 +5205,117 @@
     <col min="12" max="12" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="18" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6237,7 +6197,7 @@
       <c r="A27" s="4">
         <v>1024</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="5" t="s">
         <v>268</v>
       </c>
       <c r="C27" s="4">
@@ -6275,7 +6235,7 @@
       <c r="A28" s="4">
         <v>1025</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="8" t="s">
         <v>269</v>
       </c>
       <c r="C28" s="4">
@@ -6313,7 +6273,7 @@
       <c r="A29" s="4">
         <v>1026</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="8" t="s">
         <v>267</v>
       </c>
       <c r="C29" s="4">
@@ -6351,7 +6311,7 @@
       <c r="A30" s="4">
         <v>1027</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="8" t="s">
         <v>270</v>
       </c>
       <c r="C30" s="4">
@@ -6389,7 +6349,7 @@
       <c r="A31" s="4">
         <v>1028</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="8" t="s">
         <v>272</v>
       </c>
       <c r="C31" s="4">
@@ -6427,7 +6387,7 @@
       <c r="A32" s="4">
         <v>1029</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="8" t="s">
         <v>274</v>
       </c>
       <c r="C32" s="4">
@@ -6465,7 +6425,7 @@
       <c r="A33" s="4">
         <v>1030</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="8" t="s">
         <v>276</v>
       </c>
       <c r="C33" s="4">
@@ -6500,13 +6460,13 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="34">
+      <c r="A34" s="4">
         <v>1031</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C34" s="4">
         <v>52031</v>
       </c>
       <c r="D34" s="4">
@@ -6538,13 +6498,13 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="34">
+      <c r="A35" s="4">
         <v>1032</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C35" s="4">
         <v>52032</v>
       </c>
       <c r="D35" s="4">
@@ -6576,137 +6536,116 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="D36"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="D37"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="38"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
+      <c r="B38" s="28"/>
+      <c r="D38"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="38"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
+      <c r="B39" s="28"/>
+      <c r="D39"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="38"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
+      <c r="B40" s="28"/>
+      <c r="D40"/>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
+      <c r="D41"/>
       <c r="E41" s="3"/>
       <c r="F41" s="13"/>
       <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
+      <c r="D42"/>
       <c r="E42" s="3"/>
       <c r="F42" s="14"/>
       <c r="K42" s="3"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
+      <c r="D43"/>
       <c r="E43" s="3"/>
       <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
+      <c r="D44"/>
       <c r="E44" s="3"/>
       <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
+      <c r="D45"/>
       <c r="E45" s="1"/>
       <c r="K45" s="3"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
+      <c r="D46"/>
       <c r="E46" s="1"/>
       <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
+      <c r="D47"/>
       <c r="E47" s="1"/>
       <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
+      <c r="D48"/>
       <c r="E48" s="1"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D49"/>
       <c r="E49" s="1"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D50"/>
       <c r="E50" s="3"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D51"/>
       <c r="E51" s="3"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D52"/>
       <c r="E52" s="3"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D53"/>
       <c r="E53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
+    <row r="54" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D54"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
+    <row r="55" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D55"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D57" s="19"/>
+    <row r="56" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D56"/>
+    </row>
+    <row r="57" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6731,25 +6670,25 @@
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>238</v>
       </c>
     </row>
@@ -6813,72 +6752,72 @@
     <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>180</v>
       </c>
     </row>
@@ -7481,25 +7420,25 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="17">
+      <c r="A30" s="6">
         <v>4027</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="6">
         <v>54027</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="6">
         <v>1</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="6">
         <v>1</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="6">
         <v>55026</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="6" t="s">
         <v>220</v>
       </c>
     </row>
@@ -7515,7 +7454,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7524,25 +7463,25 @@
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>255</v>
       </c>
     </row>
@@ -7576,7 +7515,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:Q188"/>
+  <dimension ref="A1:L188"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -7589,37 +7528,37 @@
     <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="22" t="s">
         <v>263</v>
       </c>
     </row>
@@ -8305,7 +8244,7 @@
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>52015</v>
       </c>
@@ -8316,7 +8255,7 @@
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>52016</v>
       </c>
@@ -8327,357 +8266,279 @@
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>52017</v>
       </c>
-      <c r="B67" s="32" t="s">
+      <c r="B67" s="26" t="s">
         <v>29</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>52018</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="26" t="s">
         <v>27</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>52019</v>
       </c>
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="26" t="s">
         <v>28</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>52020</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>52021</v>
       </c>
-      <c r="B71" s="32" t="s">
+      <c r="B71" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>52022</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>52023</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="26" t="s">
         <v>71</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>52024</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="25" t="s">
         <v>268</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="37"/>
-      <c r="N74" s="37"/>
-      <c r="O74" s="37"/>
-      <c r="P74" s="37"/>
-      <c r="Q74" s="37"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>52025</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="26" t="s">
         <v>269</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="16"/>
       <c r="E75" s="12"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="37"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="37"/>
-      <c r="N75" s="37"/>
-      <c r="O75" s="37"/>
-      <c r="P75" s="37"/>
-      <c r="Q75" s="37"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>52026</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="26" t="s">
         <v>267</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="35"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="37"/>
-      <c r="O76" s="37"/>
-      <c r="P76" s="37"/>
-      <c r="Q76" s="37"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F76" s="1"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>52027</v>
       </c>
-      <c r="B77" s="32" t="s">
+      <c r="B77" s="26" t="s">
         <v>270</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="37"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="35"/>
-      <c r="M77" s="37"/>
-      <c r="N77" s="37"/>
-      <c r="O77" s="37"/>
-      <c r="P77" s="37"/>
-      <c r="Q77" s="37"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F77" s="1"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>52028</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="26" t="s">
         <v>272</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="37"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="35"/>
-      <c r="M78" s="37"/>
-      <c r="N78" s="37"/>
-      <c r="O78" s="37"/>
-      <c r="P78" s="37"/>
-      <c r="Q78" s="37"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F78" s="1"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>52029</v>
       </c>
-      <c r="B79" s="32" t="s">
+      <c r="B79" s="26" t="s">
         <v>274</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="37"/>
-      <c r="K79" s="35"/>
-      <c r="L79" s="35"/>
-      <c r="M79" s="37"/>
-      <c r="N79" s="37"/>
-      <c r="O79" s="37"/>
-      <c r="P79" s="37"/>
-      <c r="Q79" s="37"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F79" s="1"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>52030</v>
       </c>
-      <c r="B80" s="32" t="s">
+      <c r="B80" s="26" t="s">
         <v>276</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="37"/>
-      <c r="K80" s="35"/>
-      <c r="L80" s="35"/>
-      <c r="M80" s="37"/>
-      <c r="N80" s="37"/>
-      <c r="O80" s="37"/>
-      <c r="P80" s="37"/>
-      <c r="Q80" s="37"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F80" s="1"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>52031</v>
       </c>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="C81" s="34"/>
+      <c r="C81" s="4"/>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="37"/>
-      <c r="K81" s="35"/>
-      <c r="L81" s="35"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="37"/>
-      <c r="O81" s="37"/>
-      <c r="P81" s="37"/>
-      <c r="Q81" s="37"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F81" s="1"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>52032</v>
       </c>
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="C82" s="34"/>
+      <c r="C82" s="4"/>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="37"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="35"/>
-      <c r="M82" s="37"/>
-      <c r="N82" s="37"/>
-      <c r="O82" s="37"/>
-      <c r="P82" s="37"/>
-      <c r="Q82" s="37"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F82" s="1"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>53001</v>
       </c>
-      <c r="B83" s="32" t="s">
+      <c r="B83" s="26" t="s">
         <v>32</v>
       </c>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>53002</v>
       </c>
-      <c r="B84" s="32" t="s">
+      <c r="B84" s="26" t="s">
         <v>33</v>
       </c>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>53003</v>
       </c>
-      <c r="B85" s="32" t="s">
+      <c r="B85" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>53004</v>
       </c>
-      <c r="B86" s="32" t="s">
+      <c r="B86" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>53005</v>
       </c>
-      <c r="B87" s="32" t="s">
+      <c r="B87" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>53006</v>
       </c>
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="26" t="s">
         <v>37</v>
       </c>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>53007</v>
       </c>
@@ -8688,7 +8549,7 @@
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>53008</v>
       </c>
@@ -8699,7 +8560,7 @@
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>53009</v>
       </c>
@@ -8710,7 +8571,7 @@
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>53010</v>
       </c>
@@ -8721,7 +8582,7 @@
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>53011</v>
       </c>
@@ -8732,7 +8593,7 @@
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>53012</v>
       </c>
@@ -8743,7 +8604,7 @@
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>53013</v>
       </c>
@@ -8754,7 +8615,7 @@
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>53014</v>
       </c>
@@ -8868,11 +8729,11 @@
       <c r="A106" s="4">
         <v>53024</v>
       </c>
-      <c r="B106" s="31" t="s">
+      <c r="B106" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
       <c r="E106" s="16"/>
       <c r="F106" s="1"/>
       <c r="K106" s="3"/>
@@ -8881,11 +8742,11 @@
       <c r="A107" s="6">
         <v>53025</v>
       </c>
-      <c r="B107" s="32" t="s">
+      <c r="B107" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
       <c r="E107" s="16"/>
       <c r="F107" s="1"/>
       <c r="K107" s="3"/>
@@ -8894,11 +8755,11 @@
       <c r="A108" s="6">
         <v>53026</v>
       </c>
-      <c r="B108" s="32" t="s">
+      <c r="B108" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
       <c r="E108" s="16"/>
       <c r="F108" s="1"/>
       <c r="K108" s="3"/>
@@ -8907,11 +8768,11 @@
       <c r="A109" s="6">
         <v>53027</v>
       </c>
-      <c r="B109" s="32" t="s">
+      <c r="B109" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
       <c r="E109" s="16"/>
       <c r="F109" s="1"/>
       <c r="K109" s="3"/>
@@ -8920,11 +8781,11 @@
       <c r="A110" s="6">
         <v>53028</v>
       </c>
-      <c r="B110" s="32" t="s">
+      <c r="B110" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
       <c r="E110" s="12"/>
       <c r="K110" s="3"/>
     </row>
@@ -8932,11 +8793,11 @@
       <c r="A111" s="6">
         <v>53029</v>
       </c>
-      <c r="B111" s="32" t="s">
+      <c r="B111" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
       <c r="E111" s="15"/>
       <c r="F111" s="13"/>
       <c r="K111" s="3"/>
@@ -8945,11 +8806,11 @@
       <c r="A112" s="6">
         <v>53030</v>
       </c>
-      <c r="B112" s="32" t="s">
+      <c r="B112" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
       <c r="E112" s="15"/>
       <c r="F112" s="14"/>
       <c r="K112" s="3"/>
@@ -8958,11 +8819,11 @@
       <c r="A113" s="6">
         <v>53031</v>
       </c>
-      <c r="B113" s="33" t="s">
+      <c r="B113" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
       <c r="E113" s="15"/>
       <c r="K113" s="3"/>
     </row>
@@ -8970,11 +8831,11 @@
       <c r="A114" s="6">
         <v>53032</v>
       </c>
-      <c r="B114" s="33" t="s">
+      <c r="B114" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
       <c r="E114" s="15"/>
       <c r="K114" s="3"/>
     </row>
